--- a/ApolloQA/Data/RatingManual/SC/VA00064.IncreasedSplitLimitFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00064.IncreasedSplitLimitFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00064.IncreasedSplitLimitFactors" sheetId="1" r:id="R8cdaecc752e746a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00064.IncreasedSplitLimitFactors" sheetId="1" r:id="Ra166ca4add9945ef"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -967,6 +967,23 @@
         <x:v>Special Types</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>$100,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$25,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.3336</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Special Types</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>$250,000</x:v>
       </x:c>
       <x:c t="str">
@@ -1895,6 +1912,23 @@
       </x:c>
       <x:c t="str">
         <x:v>2.0208</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Special Types</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$25,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$50,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.0468</x:v>
       </x:c>
     </x:row>
     <x:row>
